--- a/test0801.xlsx
+++ b/test0801.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokuda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokuda\Desktop\0819\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{240A7BFF-2144-4C44-B450-F211D058C209}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC561161-6F27-4149-8E35-D150051ACF7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="390" windowWidth="22065" windowHeight="13620" xr2:uid="{B4A624C5-2D9A-4C20-9319-9EC6BF250620}"/>
+    <workbookView xWindow="6825" yWindow="1920" windowWidth="15570" windowHeight="13620" xr2:uid="{B4A624C5-2D9A-4C20-9319-9EC6BF250620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +721,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,15 +1040,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC00D65-1ECC-4B98-9B44-4A4F7505BD2F}">
-  <dimension ref="B2:M102"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="4">
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>105</v>
       </c>
@@ -1065,7 +1073,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1086,7 +1094,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1254,7 +1262,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1317,7 +1325,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" s="2">
         <v>14</v>
       </c>
